--- a/01_Documentacion/PREGAME/1.ELICITACION/1.3. Historial de Usuario/Matriz de trabajo HU_G7_V1.xlsx
+++ b/01_Documentacion/PREGAME/1.ELICITACION/1.3. Historial de Usuario/Matriz de trabajo HU_G7_V1.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IMG_NUC.H204M08\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DB4E6FD-9CAD-403E-8BFF-2A110D8BFF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato descripción HU" sheetId="1" r:id="rId1"/>
     <sheet name="Historia de Usuario" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -28,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>Matriz de Marco de Trabajo de HU</t>
   </si>
@@ -92,12 +99,6 @@
   </si>
   <si>
     <t>REQ003</t>
-  </si>
-  <si>
-    <t>REQ004</t>
-  </si>
-  <si>
-    <t>REQ005</t>
   </si>
   <si>
     <t>En proceso</t>
@@ -181,36 +182,6 @@
     <t>Registra la venta del producto</t>
   </si>
   <si>
-    <t>La actualizacion del stock al ingresar nueva mercaderia se hace a mano y no es fiable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buscar los productos por nombre o fecha </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementando una barra de busqueda con filtros por nombre o  por fecha </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion de busqueda de productos </t>
-  </si>
-  <si>
-    <t>Buscar productos manualmente consume mucho tiempo</t>
-  </si>
-  <si>
-    <t>Registrar compra de productos</t>
-  </si>
-  <si>
-    <t>Para reabastecer productos y mantener el inventario actualizado</t>
-  </si>
-  <si>
-    <t>Creando una funcionalidad para aumentar la cantidad en productos existentes</t>
-  </si>
-  <si>
-    <t>El inventario debe reflejar el nuevo stock tras compra</t>
-  </si>
-  <si>
-    <t>Registrar compra de producto</t>
-  </si>
-  <si>
     <t>Para tener acceso a la información actualizada de los productos</t>
   </si>
   <si>
@@ -227,12 +198,6 @@
   </si>
   <si>
     <t xml:space="preserve">El inventario debe reflejar correctamente la cantidad sobrante de prodcutos  a </t>
-  </si>
-  <si>
-    <t>Para agilizar la localización de los productos dentro del inventario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El producto ingresado debe mostrarse o mostrar un mensaje si dado el caso no existiera </t>
   </si>
   <si>
     <t>Melany Torres</t>
@@ -252,18 +217,15 @@
   <si>
     <t>4 dias</t>
   </si>
-  <si>
-    <t>6 dias</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,12 +265,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -380,13 +336,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="major"/>
     </font>
   </fonts>
@@ -434,7 +383,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -723,19 +672,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7B7B7B"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7B7B7B"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7B7B7B"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -774,35 +710,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF7B7B7B"/>
+      </left>
       <right style="thin">
         <color rgb="FF7B7B7B"/>
       </right>
       <top style="thin">
         <color rgb="FF7B7B7B"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7B7B7B"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7B7B7B"/>
-      </right>
-      <top/>
       <bottom style="thin">
-        <color rgb="FF7B7B7B"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -839,22 +766,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -863,7 +787,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -876,7 +800,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -884,72 +808,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -961,31 +832,66 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1066,7 +972,7 @@
         <xdr:cNvPr id="2" name="image1.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1100,7 +1006,7 @@
         <xdr:cNvPr id="3" name="image2.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1321,13 +1227,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:O991"/>
+  <dimension ref="B1:O985"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1356,22 +1262,22 @@
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H4" s="4"/>
@@ -1428,26 +1334,26 @@
       <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>38</v>
-      </c>
       <c r="H6" s="8" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="J6" s="10">
         <v>45798</v>
@@ -1455,15 +1361,15 @@
       <c r="K6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="72" t="s">
+      <c r="L6" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="74" t="s">
-        <v>40</v>
+      <c r="M6" s="44" t="s">
+        <v>38</v>
       </c>
-      <c r="N6" s="70"/>
-      <c r="O6" s="66" t="s">
-        <v>39</v>
+      <c r="N6" s="40"/>
+      <c r="O6" s="37" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1471,25 +1377,25 @@
         <v>18</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="J7" s="10">
         <v>45801</v>
@@ -1497,15 +1403,15 @@
       <c r="K7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="73" t="s">
-        <v>44</v>
+      <c r="M7" s="43" t="s">
+        <v>42</v>
       </c>
-      <c r="N7" s="71"/>
-      <c r="O7" s="66" t="s">
-        <v>45</v>
+      <c r="N7" s="41"/>
+      <c r="O7" s="37" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1513,25 +1419,25 @@
         <v>19</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
-      <c r="D8" s="78" t="s">
-        <v>47</v>
+      <c r="D8" s="72" t="s">
+        <v>45</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
-      <c r="F8" s="69" t="s">
-        <v>37</v>
+      <c r="F8" s="39" t="s">
+        <v>35</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
-      <c r="H8" s="67" t="s">
-        <v>69</v>
+      <c r="H8" s="38" t="s">
+        <v>55</v>
       </c>
-      <c r="I8" s="27" t="s">
-        <v>72</v>
+      <c r="I8" s="26" t="s">
+        <v>58</v>
       </c>
       <c r="J8" s="10">
         <v>45805</v>
@@ -1543,243 +1449,167 @@
         <v>17</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
-      <c r="N8" s="71"/>
-      <c r="O8" s="37" t="s">
-        <v>48</v>
+      <c r="N8" s="41"/>
+      <c r="O8" s="73" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="36"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="1"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="1"/>
+      <c r="J12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="1"/>
+      <c r="J13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" s="10">
-        <v>45809</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="N9" s="75"/>
-      <c r="O9" s="74" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" s="10">
-        <v>45815</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="N10" s="75"/>
-      <c r="O10" s="76" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="38"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="2"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="13"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="13"/>
+      <c r="K16" s="2"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="9:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="9:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="9:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="9:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="9:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K20" s="2"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="9:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K21" s="2"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="9:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K22" s="2"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="9:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="2"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="9:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="2"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="2"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="2"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="2"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="2"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="2"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="2"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="2"/>
@@ -7491,64 +7321,28 @@
       <c r="K983" s="2"/>
       <c r="L983" s="3"/>
     </row>
-    <row r="984" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I984" s="1"/>
-      <c r="J984" s="1"/>
-      <c r="K984" s="2"/>
+    <row r="984" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I984" s="3"/>
+      <c r="J984" s="3"/>
+      <c r="K984" s="12"/>
       <c r="L984" s="3"/>
     </row>
-    <row r="985" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I985" s="1"/>
-      <c r="J985" s="1"/>
-      <c r="K985" s="2"/>
+    <row r="985" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I985" s="3"/>
+      <c r="J985" s="3"/>
+      <c r="K985" s="12"/>
       <c r="L985" s="3"/>
-    </row>
-    <row r="986" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I986" s="1"/>
-      <c r="J986" s="1"/>
-      <c r="K986" s="2"/>
-      <c r="L986" s="3"/>
-    </row>
-    <row r="987" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I987" s="1"/>
-      <c r="J987" s="1"/>
-      <c r="K987" s="2"/>
-      <c r="L987" s="3"/>
-    </row>
-    <row r="988" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I988" s="1"/>
-      <c r="J988" s="1"/>
-      <c r="K988" s="2"/>
-      <c r="L988" s="3"/>
-    </row>
-    <row r="989" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I989" s="1"/>
-      <c r="J989" s="1"/>
-      <c r="K989" s="2"/>
-      <c r="L989" s="3"/>
-    </row>
-    <row r="990" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I990" s="3"/>
-      <c r="J990" s="3"/>
-      <c r="K990" s="12"/>
-      <c r="L990" s="3"/>
-    </row>
-    <row r="991" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I991" s="3"/>
-      <c r="J991" s="3"/>
-      <c r="K991" s="12"/>
-      <c r="L991" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:O3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L6:L10">
-      <formula1>$L$20:$L$23</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L6:L8" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K6:K10">
-      <formula1>$K$20:$K$22</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K6:K8" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -7558,7 +7352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7580,415 +7374,415 @@
     <row r="2" spans="2:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="2:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="62"/>
+    </row>
+    <row r="7" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+    </row>
+    <row r="8" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="31"/>
+    </row>
+    <row r="9" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="32"/>
+      <c r="C9" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="62"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="62"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="33"/>
+    </row>
+    <row r="10" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="32"/>
+      <c r="C10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="64" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O8,5,0)</f>
+        <v xml:space="preserve">Administrador </v>
+      </c>
+      <c r="F10" s="62"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="64" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O8,11,0)</f>
+        <v>No iniciado</v>
+      </c>
+      <c r="I10" s="62"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="33"/>
+    </row>
+    <row r="11" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="32"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="33"/>
+    </row>
+    <row r="12" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="32"/>
+      <c r="C12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="59"/>
-    </row>
-    <row r="7" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-    </row>
-    <row r="8" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="32"/>
-    </row>
-    <row r="9" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="33"/>
-      <c r="C9" s="16" t="s">
-        <v>1</v>
+      <c r="D12" s="19"/>
+      <c r="E12" s="63" t="s">
+        <v>10</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="58" t="s">
+      <c r="F12" s="62"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="58" t="s">
-        <v>11</v>
+      <c r="I12" s="62"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="33"/>
+    </row>
+    <row r="13" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="32"/>
+      <c r="C13" s="18" t="str">
+        <f>VLOOKUP('Historia de Usuario'!C10,'Formato descripción HU'!B6:O8,8,0)</f>
+        <v>3 dias</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="34"/>
-    </row>
-    <row r="10" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="33"/>
-      <c r="C10" s="19" t="s">
-        <v>18</v>
+      <c r="D13" s="19"/>
+      <c r="E13" s="64" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O8,10,0)</f>
+        <v>Alta</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="60" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,5,0)</f>
-        <v xml:space="preserve">Administrador </v>
+      <c r="F13" s="62"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="64" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O8,7,0)</f>
+        <v>Gael González</v>
       </c>
-      <c r="F10" s="59"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="60" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,11,0)</f>
-        <v>No iniciado</v>
-      </c>
-      <c r="I10" s="59"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="34"/>
-    </row>
-    <row r="11" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="33"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="34"/>
-    </row>
-    <row r="12" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="33"/>
-      <c r="C12" s="16" t="s">
+      <c r="I13" s="62"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="33"/>
+    </row>
+    <row r="14" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="32"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="33"/>
+    </row>
+    <row r="15" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="32"/>
+      <c r="C15" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="58" t="s">
-        <v>10</v>
+      <c r="D15" s="65" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O8,3,0)</f>
+        <v xml:space="preserve">ingresar  nuevos productos en el sistema con sus datos completos </v>
       </c>
-      <c r="F12" s="59"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="58" t="s">
+      <c r="E15" s="51"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="59"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="34"/>
-    </row>
-    <row r="13" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="33"/>
-      <c r="C13" s="19" t="str">
-        <f>VLOOKUP('Historia de Usuario'!C10,'Formato descripción HU'!B6:O10,8,0)</f>
-        <v>3 dias</v>
+      <c r="H15" s="65" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O8,4,0)</f>
+        <v xml:space="preserve">Para asegurar los registros correctos y eficientes de  los productos </v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="60" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,10,0)</f>
-        <v>Alta</v>
-      </c>
-      <c r="F13" s="59"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="60" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,7,0)</f>
-        <v>Gael González</v>
-      </c>
-      <c r="I13" s="59"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="34"/>
-    </row>
-    <row r="14" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="33"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="34"/>
-    </row>
-    <row r="15" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="33"/>
-      <c r="C15" s="41" t="s">
+      <c r="I15" s="58"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="65" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,3,0)</f>
-        <v xml:space="preserve">ingresar  nuevos productos en el sistema con sus datos completos </v>
+      <c r="M15" s="57" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O8,6,0)</f>
+        <v>creaando un formulario con validacion y funcionalida de guardar</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="41" t="s">
+      <c r="N15" s="58"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="33"/>
+    </row>
+    <row r="16" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="32"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="33"/>
+    </row>
+    <row r="17" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="32"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="33"/>
+    </row>
+    <row r="18" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="32"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="33"/>
+    </row>
+    <row r="19" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="32"/>
+      <c r="C19" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="65" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,4,0)</f>
-        <v xml:space="preserve">Para asegurar los registros correctos y eficientes de  los productos </v>
+      <c r="D19" s="51"/>
+      <c r="E19" s="66" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O8,14,0)</f>
+        <v>Ingresar un nuevo producto</v>
       </c>
-      <c r="I15" s="45"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="41" t="s">
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="33"/>
+    </row>
+    <row r="20" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="32"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="33"/>
+    </row>
+    <row r="21" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="32"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="33"/>
+    </row>
+    <row r="22" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="32"/>
+      <c r="C22" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="44" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,6,0)</f>
-        <v>creaando un formulario con validacion y funcionalida de guardar</v>
-      </c>
-      <c r="N15" s="45"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="34"/>
-    </row>
-    <row r="16" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="33"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="34"/>
-    </row>
-    <row r="17" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="33"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="34"/>
-    </row>
-    <row r="18" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="33"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="34"/>
-    </row>
-    <row r="19" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="33"/>
-      <c r="C19" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="52" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,14,0)</f>
-        <v>Ingresar un nuevo producto</v>
-      </c>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="34"/>
-    </row>
-    <row r="20" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="33"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="34"/>
-    </row>
-    <row r="21" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="33"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="34"/>
-    </row>
-    <row r="22" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="33"/>
-      <c r="C22" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="44" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,12,0)</f>
+      <c r="D22" s="51"/>
+      <c r="E22" s="57" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O8,12,0)</f>
         <v>El producto debe guardarse y mostrarse, no se permite guardar sin sus datos completos</v>
       </c>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="62" t="s">
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="46"/>
-      <c r="L22" s="44">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,13,0)</f>
+      <c r="K22" s="51"/>
+      <c r="L22" s="57">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O8,13,0)</f>
         <v>0</v>
       </c>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="34"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="33"/>
     </row>
     <row r="23" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="33"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="34"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="33"/>
     </row>
     <row r="24" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="33"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="34"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="33"/>
     </row>
     <row r="25" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="26"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="25"/>
     </row>
     <row r="26" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8987,6 +8781,11 @@
     <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:O17"/>
+    <mergeCell ref="E19:O20"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="C22:D24"/>
@@ -9003,11 +8802,6 @@
     <mergeCell ref="D15:E17"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="H15:J17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:O17"/>
-    <mergeCell ref="E19:O20"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
@@ -9036,9 +8830,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
-            <xm:f>'Formato descripción HU'!$B$6:$B$10</xm:f>
+            <xm:f>'Formato descripción HU'!$B$6:$B$8</xm:f>
           </x14:formula1>
           <xm:sqref>C10:C11</xm:sqref>
         </x14:dataValidation>
